--- a/data/TopOnePercent/Shandong Normal University.xlsx
+++ b/data/TopOnePercent/Shandong Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1786.0</v>
+        <v>1756.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>24278.0</v>
+        <v>23882.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>13.59</v>
+        <v>13.6</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>643.0</v>
+        <v>677.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>6145.0</v>
+        <v>6418.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>9.56</v>
+        <v>9.48</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,13 +228,13 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>404.0</v>
+        <v>405.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>5315.0</v>
+        <v>5395.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>13.16</v>
+        <v>13.32</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>19.0</v>
@@ -250,22 +250,22 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>6279.0</v>
+        <v>6274.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>58788.0</v>
+        <v>58712.0</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>9.36</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>129.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
